--- a/input/example.xlsx
+++ b/input/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitri4/Code/other/py-xlsx2xml4salaries-report/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DA661A-F269-4744-B36E-86D86E445E49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7746BDC5-B4FD-7848-83F4-9C159B01BD09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="444">
   <si>
     <t>Субъект Российской Федерации</t>
   </si>
@@ -1395,6 +1395,15 @@
   </si>
   <si>
     <t>Иванова Наталья Ивановна</t>
+  </si>
+  <si>
+    <t>Водитель автомобиля</t>
+  </si>
+  <si>
+    <t>Основное</t>
+  </si>
+  <si>
+    <t>5 лет 10 мес</t>
   </si>
 </sst>
 </file>
@@ -1609,7 +1618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1902,6 +1911,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3786,7 +3796,7 @@
   <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4057,50 +4067,104 @@
         <v>1</v>
       </c>
       <c r="C6" s="51">
-        <v>8910002124</v>
+        <v>1111111111</v>
       </c>
       <c r="D6" s="51">
-        <v>891001001</v>
+        <v>111111111</v>
       </c>
       <c r="E6" s="7">
         <v>13</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>10</v>
+      <c r="F6" s="7">
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
+      <c r="H6" s="7">
+        <v>1111111111</v>
+      </c>
+      <c r="I6" s="23">
+        <v>1</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="K6" s="23">
+        <v>600</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="M6" s="108">
+        <v>1</v>
+      </c>
+      <c r="N6" s="23">
+        <v>173.3</v>
+      </c>
+      <c r="O6" s="23">
+        <v>192</v>
+      </c>
+      <c r="P6" s="23">
+        <v>9179.39</v>
+      </c>
+      <c r="Q6" s="23">
+        <v>0</v>
+      </c>
+      <c r="R6" s="23">
+        <v>0</v>
+      </c>
+      <c r="S6" s="23">
+        <v>0</v>
+      </c>
+      <c r="T6" s="23">
+        <v>1459.48</v>
+      </c>
+      <c r="U6" s="23">
+        <v>0</v>
+      </c>
+      <c r="V6" s="23">
+        <v>1442.7</v>
+      </c>
+      <c r="W6" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="X6" s="23">
+        <v>294.63</v>
+      </c>
+      <c r="Y6" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="23">
+        <v>19728.62</v>
+      </c>
+      <c r="AI6" s="23">
+        <v>122431</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4116,7 +4180,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4277,10 +4341,10 @@
         <v>2020</v>
       </c>
       <c r="B5" s="51">
-        <v>1234</v>
+        <v>1111111111</v>
       </c>
       <c r="C5" s="51">
-        <v>1234</v>
+        <v>111111111</v>
       </c>
       <c r="D5" s="51">
         <v>1234</v>
@@ -4313,10 +4377,10 @@
         <v>2021</v>
       </c>
       <c r="B6" s="51">
-        <v>1234</v>
+        <v>1111111111</v>
       </c>
       <c r="C6" s="51">
-        <v>1234</v>
+        <v>111111111</v>
       </c>
       <c r="D6" s="51">
         <v>1234</v>
@@ -4369,7 +4433,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4467,11 +4531,11 @@
       <c r="A4" s="23">
         <v>2019</v>
       </c>
-      <c r="B4" s="23">
-        <v>1234</v>
-      </c>
-      <c r="C4" s="23">
-        <v>1234</v>
+      <c r="B4" s="51">
+        <v>1111111111</v>
+      </c>
+      <c r="C4" s="51">
+        <v>111111111</v>
       </c>
       <c r="D4" s="23">
         <v>3822484.57</v>
@@ -4490,11 +4554,11 @@
       <c r="A5" s="23">
         <v>2020</v>
       </c>
-      <c r="B5" s="23">
-        <v>1234</v>
-      </c>
-      <c r="C5" s="23">
-        <v>1234</v>
+      <c r="B5" s="51">
+        <v>1111111111</v>
+      </c>
+      <c r="C5" s="51">
+        <v>111111111</v>
       </c>
       <c r="D5" s="23">
         <v>3822484.57</v>
@@ -4513,11 +4577,11 @@
       <c r="A6" s="23">
         <v>2021</v>
       </c>
-      <c r="B6" s="23">
-        <v>1234</v>
-      </c>
-      <c r="C6" s="23">
-        <v>1234</v>
+      <c r="B6" s="51">
+        <v>1111111111</v>
+      </c>
+      <c r="C6" s="51">
+        <v>111111111</v>
       </c>
       <c r="D6" s="23">
         <v>3822484.57</v>
